--- a/export/bom/template_project_kicad-bom.xlsx
+++ b/export/bom/template_project_kicad-bom.xlsx
@@ -74,7 +74,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-26_00-20-49</t>
+    <t>2023-11-26_00-38-44</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/export/bom/template_project_kicad-bom.xlsx
+++ b/export/bom/template_project_kicad-bom.xlsx
@@ -74,7 +74,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-11-26_00-38-44</t>
+    <t>2023-11-26_00-58-08</t>
   </si>
   <si>
     <t>KiCad Version:</t>
